--- a/sakurasaku/ツリー_ソート_ポインタ_ユニコード.xlsx
+++ b/sakurasaku/ツリー_ソート_ポインタ_ユニコード.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>P.86</t>
     <phoneticPr fontId="1"/>
@@ -55,15 +55,66 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユニコード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>P.78</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ポインタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字コード</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0と1の2進数で表現されているのに、文字を扱うことができるのは、
+文字の一つ一つに、特定の2進数が割り当てられていて、
+文字という情報をコード化しているため。</t>
+    <rPh sb="5" eb="7">
+      <t>シンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シンスウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>カ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -71,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +135,15 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -110,9 +170,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,48 +460,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C14"/>
+  <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A14" activeCellId="2" sqref="A6 A10 A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="6.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:J3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>